--- a/LOCA2_inventory_min_errors.xlsx
+++ b/LOCA2_inventory_min_errors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Retrieval/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{318734B4-2051-6147-A117-EA3E0664B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADF85C-D153-E745-AB8F-553CF6B36903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="840" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2400" yWindow="6260" windowWidth="28040" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCA2_inventory_min_errors" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1021,12 +1021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16583,7 +16583,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G676">
+  <autoFilter ref="A1:G676" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="All"/>

--- a/LOCA2_inventory_min_errors.xlsx
+++ b/LOCA2_inventory_min_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADF85C-D153-E745-AB8F-553CF6B36903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037D6DE-864E-BE48-92C1-BBC7671757AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="6260" windowWidth="28040" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCA2_inventory_min_errors" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:G676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+      <selection activeCell="A276" sqref="A276:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LOCA2_inventory_min_errors.xlsx
+++ b/LOCA2_inventory_min_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037D6DE-864E-BE48-92C1-BBC7671757AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148A600E-8E2B-C047-8FD1-93283E11FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCA2_inventory_min_errors" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,7 +1027,7 @@
   <dimension ref="A1:G676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A276" sqref="A276:XFD276"/>
+      <selection activeCell="D476" sqref="D476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7359,26 +7360,26 @@
         <v>5.8129166520000002</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="276" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="1">
         <v>9.4244363230000001</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>1.8055470090000001</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="1">
         <v>9.5958324289999997</v>
       </c>
     </row>

--- a/LOCA2_inventory_min_errors.xlsx
+++ b/LOCA2_inventory_min_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148A600E-8E2B-C047-8FD1-93283E11FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6C103-A658-4248-9876-31642A336087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:G676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D476" sqref="D476"/>
+      <selection activeCell="A651" sqref="A651:XFD651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9085,26 +9085,26 @@
         <v>2.4186773239999999</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row r="351" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="1">
         <v>9.8579916819999998</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="1">
         <v>1.2</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="1">
         <v>9.9307602930000005</v>
       </c>
     </row>
@@ -13686,25 +13686,25 @@
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C551" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D551" t="s">
+      <c r="D551" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E551">
+      <c r="E551" s="1">
         <v>10.55698821</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="1">
         <v>2.7166155409999999</v>
       </c>
-      <c r="G551">
+      <c r="G551" s="1">
         <v>10.90091739</v>
       </c>
     </row>
@@ -15985,26 +15985,26 @@
         <v>5.6824290580000003</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A651" t="s">
+    <row r="651" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B651" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C651" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D651" t="s">
+      <c r="D651" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E651">
+      <c r="E651" s="1">
         <v>11.868024269999999</v>
       </c>
-      <c r="F651">
+      <c r="F651" s="1">
         <v>1.403566885</v>
       </c>
-      <c r="G651">
+      <c r="G651" s="1">
         <v>11.950732199999999</v>
       </c>
     </row>
